--- a/sputnik/personal/ee/305ee.xlsx
+++ b/sputnik/personal/ee/305ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,7 +39,19 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>переплпта</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -53,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +98,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,19 +137,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -163,10 +149,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -176,7 +161,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -186,35 +171,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -522,10 +492,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F14:F16"/>
+      <selection activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -536,395 +506,405 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43509</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>43527</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>370</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>370</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="12">
         <v>4.57</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f t="shared" ref="F4:F9" si="0">PRODUCT(D4,E4)</f>
         <v>1690.9</v>
       </c>
+      <c r="G4" s="14">
+        <f>SUM(F4,F5)</f>
+        <v>2097.2000000000003</v>
+      </c>
+      <c r="H4" s="14">
+        <v>2097.1999999999998</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>170</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>170</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="12">
         <v>2.39</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>406.3</v>
       </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>43579</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>650</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f t="shared" ref="D6:D11" si="1">SUM(C6,-C4)</f>
         <v>280</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="12">
         <v>4.57</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>1279.6000000000001</v>
       </c>
+      <c r="G6" s="14">
+        <f>SUM(F6,F7)</f>
+        <v>1685.9</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1685.9</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>340</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="12">
         <v>2.39</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>406.3</v>
       </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>43637</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>850</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="12">
         <v>4.57</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>914</v>
       </c>
+      <c r="G8" s="14">
+        <f>SUM(F8,F9)</f>
+        <v>1176.9000000000001</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1726.6</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>450</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="12">
         <v>2.39</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>262.90000000000003</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="13">
         <v>43684</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>1250</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="12">
         <v>4.49</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f t="shared" ref="F10:F15" si="2">PRODUCT(D10,E10)</f>
         <v>1796</v>
       </c>
+      <c r="G10" s="14">
+        <f>SUM(F10,F11)</f>
+        <v>2039</v>
+      </c>
+      <c r="H10" s="14">
+        <v>2039</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>550</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="12">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f t="shared" si="2"/>
         <v>243.00000000000003</v>
       </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="13">
         <v>43782</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>1585</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f>SUM(C12,-C10)</f>
         <v>335</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="12">
         <v>4.49</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f t="shared" si="2"/>
         <v>1504.15</v>
       </c>
+      <c r="G12" s="14">
+        <f>SUM(F12,F13)</f>
+        <v>1820.0500000000002</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1843</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>680</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f>SUM(C13,-C11)</f>
         <v>130</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="12">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f t="shared" si="2"/>
         <v>315.90000000000003</v>
       </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="13">
         <v>43853</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>2378</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f>SUM(C14,-C12)</f>
         <v>793</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="12">
         <v>4.49</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f t="shared" si="2"/>
         <v>3560.57</v>
       </c>
+      <c r="G14" s="14">
+        <f>SUM(F14,F15)</f>
+        <v>4515.5600000000004</v>
+      </c>
+      <c r="H14" s="14">
+        <v>4549.57</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>1073</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f>SUM(C15,-C13)</f>
         <v>393</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="12">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f t="shared" si="2"/>
         <v>954.99</v>
       </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6">
-        <v>34.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="14">
+        <f>SUM(G2:G15)</f>
+        <v>13334.61</v>
+      </c>
+      <c r="H16" s="14">
+        <f>SUM(H2:H15)</f>
+        <v>13941.27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14">
+        <f>SUM(H16,-G16)</f>
+        <v>606.65999999999985</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/305ee.xlsx
+++ b/sputnik/personal/ee/305ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +94,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -149,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -185,6 +192,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -492,10 +500,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A14"/>
+      <selection activeCell="F9" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -694,7 +702,7 @@
         <f>SUM(F8,F9)</f>
         <v>1176.9000000000001</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="15">
         <v>1726.6</v>
       </c>
     </row>
@@ -876,34 +884,85 @@
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5" t="s">
+      <c r="A16" s="13">
+        <v>43945</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3305</v>
+      </c>
+      <c r="D16" s="2">
+        <f>SUM(C16,-C14)</f>
+        <v>927</v>
+      </c>
+      <c r="E16" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="3">PRODUCT(D16,E16)</f>
+        <v>4162.2300000000005</v>
+      </c>
+      <c r="G16" s="14">
+        <f>SUM(F16,F17)</f>
+        <v>5365.0800000000008</v>
+      </c>
+      <c r="H16" s="14">
+        <v>5344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1568</v>
+      </c>
+      <c r="D17" s="2">
+        <f>SUM(C17,-C15)</f>
+        <v>495</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="3"/>
+        <v>1202.8500000000001</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="14">
-        <f>SUM(G2:G15)</f>
-        <v>13334.61</v>
-      </c>
-      <c r="H16" s="14">
-        <f>SUM(H2:H15)</f>
-        <v>13941.27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14">
-        <f>SUM(H16,-G16)</f>
-        <v>606.65999999999985</v>
+      <c r="G18" s="14">
+        <f>SUM(G2:G17)</f>
+        <v>18699.690000000002</v>
+      </c>
+      <c r="H18" s="14">
+        <f>SUM(H2:H17)</f>
+        <v>19285.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14">
+        <f>SUM(H18,-G18)</f>
+        <v>585.57999999999811</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/305ee.xlsx
+++ b/sputnik/personal/ee/305ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -500,10 +500,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F8:F9"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -792,7 +792,7 @@
         <v>1585</v>
       </c>
       <c r="D12" s="2">
-        <f>SUM(C12,-C10)</f>
+        <f t="shared" ref="D12:D19" si="3">SUM(C12,-C10)</f>
         <v>335</v>
       </c>
       <c r="E12" s="12">
@@ -819,7 +819,7 @@
         <v>680</v>
       </c>
       <c r="D13" s="2">
-        <f>SUM(C13,-C11)</f>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="E13" s="12">
@@ -843,7 +843,7 @@
         <v>2378</v>
       </c>
       <c r="D14" s="2">
-        <f>SUM(C14,-C12)</f>
+        <f t="shared" si="3"/>
         <v>793</v>
       </c>
       <c r="E14" s="12">
@@ -870,7 +870,7 @@
         <v>1073</v>
       </c>
       <c r="D15" s="2">
-        <f>SUM(C15,-C13)</f>
+        <f t="shared" si="3"/>
         <v>393</v>
       </c>
       <c r="E15" s="12">
@@ -894,14 +894,14 @@
         <v>3305</v>
       </c>
       <c r="D16" s="2">
-        <f>SUM(C16,-C14)</f>
+        <f t="shared" si="3"/>
         <v>927</v>
       </c>
       <c r="E16" s="12">
         <v>4.49</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" ref="F16:F17" si="3">PRODUCT(D16,E16)</f>
+        <f t="shared" ref="F16:F17" si="4">PRODUCT(D16,E16)</f>
         <v>4162.2300000000005</v>
       </c>
       <c r="G16" s="14">
@@ -921,48 +921,99 @@
         <v>1568</v>
       </c>
       <c r="D17" s="2">
-        <f>SUM(C17,-C15)</f>
+        <f t="shared" si="3"/>
         <v>495</v>
       </c>
       <c r="E17" s="12">
         <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1202.8500000000001</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5" t="s">
+      <c r="A18" s="13">
+        <v>43999</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3853</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="3"/>
+        <v>548</v>
+      </c>
+      <c r="E18" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:F19" si="5">PRODUCT(D18,E18)</f>
+        <v>2460.52</v>
+      </c>
+      <c r="G18" s="14">
+        <f>SUM(F18,F19)</f>
+        <v>2871.19</v>
+      </c>
+      <c r="H18" s="14">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1737</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="3"/>
+        <v>169</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="5"/>
+        <v>410.67</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="14">
-        <f>SUM(G2:G17)</f>
-        <v>18699.690000000002</v>
-      </c>
-      <c r="H18" s="14">
-        <f>SUM(H2:H17)</f>
-        <v>19285.27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14">
-        <f>SUM(H18,-G18)</f>
-        <v>585.57999999999811</v>
+      <c r="G20" s="14">
+        <f>SUM(G2:G19)</f>
+        <v>21570.880000000001</v>
+      </c>
+      <c r="H20" s="14">
+        <f>SUM(H2:H19)</f>
+        <v>22166.27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14">
+        <f>SUM(H20,-G20)</f>
+        <v>595.38999999999942</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/305ee.xlsx
+++ b/sputnik/personal/ee/305ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -106,12 +106,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -156,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -193,6 +199,7 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -500,10 +507,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -955,11 +962,11 @@
         <f t="shared" ref="F18:F19" si="5">PRODUCT(D18,E18)</f>
         <v>2460.52</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="16">
         <f>SUM(F18,F19)</f>
         <v>2871.19</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="16">
         <v>2881</v>
       </c>
     </row>
@@ -982,38 +989,89 @@
         <f t="shared" si="5"/>
         <v>410.67</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="5" t="s">
+      <c r="A20" s="13">
+        <v>44028</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4055</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="6">SUM(C20,-C18)</f>
+        <v>202</v>
+      </c>
+      <c r="E20" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:F21" si="7">PRODUCT(D20,E20)</f>
+        <v>951.42</v>
+      </c>
+      <c r="G20" s="16">
+        <f>SUM(F20,F21)</f>
+        <v>1094.22</v>
+      </c>
+      <c r="H20" s="16">
+        <v>1197.8399999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1793</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="7"/>
+        <v>142.79999999999998</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="14">
-        <f>SUM(G2:G19)</f>
-        <v>21570.880000000001</v>
-      </c>
-      <c r="H20" s="14">
-        <f>SUM(H2:H19)</f>
-        <v>22166.27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14">
-        <f>SUM(H20,-G20)</f>
-        <v>595.38999999999942</v>
+      <c r="G22" s="14">
+        <f>SUM(G2:G21)</f>
+        <v>22665.100000000002</v>
+      </c>
+      <c r="H22" s="14">
+        <f>SUM(H2:H21)</f>
+        <v>23364.11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14">
+        <f>SUM(H22,-G22)</f>
+        <v>699.0099999999984</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/305ee.xlsx
+++ b/sputnik/personal/ee/305ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -106,7 +106,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +116,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -198,8 +204,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -507,10 +514,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -705,11 +712,11 @@
         <f t="shared" si="0"/>
         <v>914</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="16">
         <f>SUM(F8,F9)</f>
         <v>1176.9000000000001</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="17">
         <v>1726.6</v>
       </c>
     </row>
@@ -962,11 +969,11 @@
         <f t="shared" ref="F18:F19" si="5">PRODUCT(D18,E18)</f>
         <v>2460.52</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="15">
         <f>SUM(F18,F19)</f>
         <v>2871.19</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="15">
         <v>2881</v>
       </c>
     </row>
@@ -989,8 +996,8 @@
         <f t="shared" si="5"/>
         <v>410.67</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
@@ -1013,11 +1020,11 @@
         <f t="shared" ref="F20:F21" si="7">PRODUCT(D20,E20)</f>
         <v>951.42</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <f>SUM(F20,F21)</f>
         <v>1094.22</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="15">
         <v>1197.8399999999999</v>
       </c>
     </row>
@@ -1044,33 +1051,84 @@
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="5" t="s">
+      <c r="A22" s="13">
+        <v>44096</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4453</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D23" si="8">SUM(C22,-C20)</f>
+        <v>398</v>
+      </c>
+      <c r="E22" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F23" si="9">PRODUCT(D22,E22)</f>
+        <v>1874.58</v>
+      </c>
+      <c r="G22" s="15">
+        <f>SUM(F22,F23)</f>
+        <v>2106.63</v>
+      </c>
+      <c r="H22" s="15">
+        <v>2106.63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1884</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="9"/>
+        <v>232.04999999999998</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="14">
-        <f>SUM(G2:G21)</f>
-        <v>22665.100000000002</v>
-      </c>
-      <c r="H22" s="14">
-        <f>SUM(H2:H21)</f>
-        <v>23364.11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14">
-        <f>SUM(H22,-G22)</f>
+      <c r="G24" s="14">
+        <f>SUM(G2:G23)</f>
+        <v>24771.730000000003</v>
+      </c>
+      <c r="H24" s="14">
+        <f>SUM(H2:H23)</f>
+        <v>25470.74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14">
+        <f>SUM(H24,-G24)</f>
         <v>699.0099999999984</v>
       </c>
     </row>

--- a/sputnik/personal/ee/305ee.xlsx
+++ b/sputnik/personal/ee/305ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -51,17 +51,26 @@
     <t>оплачено</t>
   </si>
   <si>
-    <t>итого за период</t>
+    <t xml:space="preserve">Т </t>
+  </si>
+  <si>
+    <t>нач пени  за 90дн</t>
+  </si>
+  <si>
+    <t>нач пени  за 67 дн</t>
+  </si>
+  <si>
+    <t>нач пени  за 85 дн</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +114,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -126,7 +143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,26 +166,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -186,17 +188,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -207,6 +198,21 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -267,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,10 +305,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,7 +339,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -510,17 +514,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -535,7 +539,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="50.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -561,7 +565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="3">
         <v>43509</v>
       </c>
@@ -574,10 +578,10 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -588,10 +592,10 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
       <c r="A4" s="3">
         <v>43527</v>
       </c>
@@ -604,22 +608,22 @@
       <c r="D4" s="2">
         <v>370</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="7">
         <v>4.57</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ref="F4:F9" si="0">PRODUCT(D4,E4)</f>
         <v>1690.9</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="9">
         <f>SUM(F4,F5)</f>
         <v>2097.2000000000003</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="9">
         <v>2097.1999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -630,17 +634,17 @@
       <c r="D5" s="2">
         <v>170</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="7">
         <v>2.39</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>406.3</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1">
       <c r="A6" s="3">
         <v>43579</v>
       </c>
@@ -654,22 +658,22 @@
         <f t="shared" ref="D6:D11" si="1">SUM(C6,-C4)</f>
         <v>280</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <v>4.57</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>1279.6000000000001</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="9">
         <f>SUM(F6,F7)</f>
         <v>1685.9</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="9">
         <v>1685.9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -681,17 +685,17 @@
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="7">
         <v>2.39</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>406.3</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1">
       <c r="A8" s="3">
         <v>43637</v>
       </c>
@@ -705,22 +709,22 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="7">
         <v>4.57</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>914</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="11">
         <f>SUM(F8,F9)</f>
         <v>1176.9000000000001</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="12">
         <v>1726.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="19.5" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -732,20 +736,20 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="7">
         <v>2.39</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>262.90000000000003</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+    <row r="10" spans="1:8">
+      <c r="A10" s="8">
         <v>43684</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -758,22 +762,22 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="7">
         <v>4.49</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ref="F10:F15" si="2">PRODUCT(D10,E10)</f>
         <v>1796</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="9">
         <f>SUM(F10,F11)</f>
         <v>2039</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="9">
         <v>2039</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -785,18 +789,18 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="2"/>
         <v>243.00000000000003</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8">
         <v>43782</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -806,26 +810,26 @@
         <v>1585</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12:D19" si="3">SUM(C12,-C10)</f>
+        <f t="shared" ref="D12:D15" si="3">SUM(C12,-C10)</f>
         <v>335</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="7">
         <v>4.49</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="2"/>
         <v>1504.15</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="9">
         <f>SUM(F12,F13)</f>
         <v>1820.0500000000002</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="9">
         <v>1843</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8"/>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
@@ -836,18 +840,18 @@
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="2"/>
         <v>315.90000000000003</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8">
         <v>43853</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -860,22 +864,22 @@
         <f t="shared" si="3"/>
         <v>793</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="7">
         <v>4.49</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="2"/>
         <v>3560.57</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="9">
         <f>SUM(F14,F15)</f>
         <v>4515.5600000000004</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="9">
         <v>4549.57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
         <v>1</v>
@@ -887,18 +891,18 @@
         <f t="shared" si="3"/>
         <v>393</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="2"/>
         <v>954.99</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="8">
         <v>43945</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -908,25 +912,25 @@
         <v>3305</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="3"/>
+        <f>SUM(C16,-C14)</f>
         <v>927</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="7">
         <v>4.49</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ref="F16:F17" si="4">PRODUCT(D16,E16)</f>
         <v>4162.2300000000005</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="9">
         <f>SUM(F16,F17)</f>
         <v>5365.0800000000008</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="9">
         <v>5344</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
         <v>1</v>
@@ -935,201 +939,303 @@
         <v>1568</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="3"/>
+        <f>SUM(C17,-C15)</f>
         <v>495</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="4"/>
         <v>1202.8500000000001</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="13">
+        <v>43945</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
+        <v>267.2</v>
+      </c>
+      <c r="G18" s="17">
+        <v>267.2</v>
+      </c>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="8">
         <v>43999</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
         <v>3853</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" si="3"/>
+      <c r="D19" s="2">
+        <f>SUM(C19,-C16)</f>
         <v>548</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E19" s="7">
         <v>4.49</v>
       </c>
-      <c r="F18" s="5">
-        <f t="shared" ref="F18:F19" si="5">PRODUCT(D18,E18)</f>
+      <c r="F19" s="5">
+        <f t="shared" ref="F19:F20" si="5">PRODUCT(D19,E19)</f>
         <v>2460.52</v>
       </c>
-      <c r="G18" s="15">
-        <f>SUM(F18,F19)</f>
+      <c r="G19" s="10">
+        <f>SUM(F19,F20)</f>
         <v>2871.19</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H19" s="10">
         <v>2881</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2">
         <v>1737</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" si="3"/>
+      <c r="D20" s="2">
+        <f>SUM(C20,-C17)</f>
         <v>169</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E20" s="7">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F20" s="5">
         <f t="shared" si="5"/>
         <v>410.67</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="8">
         <v>44028</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
         <v>4055</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" ref="D20:D21" si="6">SUM(C20,-C18)</f>
+      <c r="D21" s="2">
+        <f t="shared" ref="D21:D22" si="6">SUM(C21,-C19)</f>
         <v>202</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="7">
         <v>4.71</v>
       </c>
-      <c r="F20" s="5">
-        <f t="shared" ref="F20:F21" si="7">PRODUCT(D20,E20)</f>
+      <c r="F21" s="5">
+        <f t="shared" ref="F21:F22" si="7">PRODUCT(D21,E21)</f>
         <v>951.42</v>
       </c>
-      <c r="G20" s="15">
-        <f>SUM(F20,F21)</f>
+      <c r="G21" s="10">
+        <f>SUM(F21,F22)</f>
         <v>1094.22</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H21" s="10">
         <v>1197.8399999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="2">
         <v>1793</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="2">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E22" s="7">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F22" s="5">
         <f t="shared" si="7"/>
         <v>142.79999999999998</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8">
         <v>44096</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
         <v>4453</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" ref="D22:D23" si="8">SUM(C22,-C20)</f>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23" si="8">SUM(C23,-C21)</f>
         <v>398</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E23" s="7">
         <v>4.71</v>
       </c>
-      <c r="F22" s="5">
-        <f t="shared" ref="F22:F23" si="9">PRODUCT(D22,E22)</f>
+      <c r="F23" s="5">
+        <f t="shared" ref="F23:F24" si="9">PRODUCT(D23,E23)</f>
         <v>1874.58</v>
       </c>
-      <c r="G22" s="15">
-        <f>SUM(F22,F23)</f>
+      <c r="G23" s="10">
+        <f>SUM(F23,F24)</f>
         <v>2106.63</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H23" s="10">
         <v>2106.63</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>1884</v>
       </c>
-      <c r="D23" s="2">
-        <f t="shared" si="8"/>
+      <c r="D24" s="2">
+        <f>SUM(C24,-C22)</f>
         <v>91</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E24" s="7">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F24" s="5">
         <f t="shared" si="9"/>
         <v>232.04999999999998</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="13">
+        <v>44096</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="14">
-        <f>SUM(G2:G23)</f>
-        <v>24771.730000000003</v>
-      </c>
-      <c r="H24" s="14">
-        <f>SUM(H2:H23)</f>
-        <v>25470.74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14">
-        <f>SUM(H24,-G24)</f>
-        <v>699.0099999999984</v>
+      <c r="C25" s="14">
+        <v>0</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16">
+        <v>56.88</v>
+      </c>
+      <c r="G25" s="17">
+        <v>56.88</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="8">
+        <v>44182</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5695</v>
+      </c>
+      <c r="D26" s="2">
+        <f>SUM(C26,-C23)</f>
+        <v>1242</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ref="F26:F27" si="10">PRODUCT(D26,E26)</f>
+        <v>5849.82</v>
+      </c>
+      <c r="G26" s="10">
+        <f>SUM(F26,F27)</f>
+        <v>7367.07</v>
+      </c>
+      <c r="H26" s="10">
+        <v>7367.07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2479</v>
+      </c>
+      <c r="D27" s="2">
+        <f>SUM(C27,-C24)</f>
+        <v>595</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="10"/>
+        <v>1517.25</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="13">
+        <v>44182</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="16">
+        <v>331.52</v>
+      </c>
+      <c r="G28" s="17">
+        <v>331.52</v>
+      </c>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="G29" s="19">
+        <f>SUM(G2:G28)</f>
+        <v>32794.400000000001</v>
+      </c>
+      <c r="H29" s="19">
+        <f>SUM(H2:H28)</f>
+        <v>32837.81</v>
       </c>
     </row>
   </sheetData>
@@ -1140,12 +1246,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1154,12 +1260,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/305ee.xlsx
+++ b/sputnik/personal/ee/305ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -66,11 +66,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,9 +305,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,6 +340,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -514,7 +516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -524,7 +526,7 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -539,7 +541,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="50.25" customHeight="1">
+    <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -565,7 +567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43509</v>
       </c>
@@ -581,7 +583,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -595,7 +597,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43527</v>
       </c>
@@ -623,7 +625,7 @@
         <v>2097.1999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -644,7 +646,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43579</v>
       </c>
@@ -673,7 +675,7 @@
         <v>1685.9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -695,7 +697,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43637</v>
       </c>
@@ -724,7 +726,7 @@
         <v>1726.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1">
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -748,7 +750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43684</v>
       </c>
@@ -777,7 +779,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -799,7 +801,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43782</v>
       </c>
@@ -828,7 +830,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -850,7 +852,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43853</v>
       </c>
@@ -879,7 +881,7 @@
         <v>4549.57</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
         <v>1</v>
@@ -901,7 +903,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43945</v>
       </c>
@@ -930,7 +932,7 @@
         <v>5344</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
         <v>1</v>
@@ -952,7 +954,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>43945</v>
       </c>
@@ -976,7 +978,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43999</v>
       </c>
@@ -1005,7 +1007,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
         <v>1</v>
@@ -1027,7 +1029,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>44028</v>
       </c>
@@ -1056,7 +1058,7 @@
         <v>1197.8399999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
         <v>1</v>
@@ -1078,7 +1080,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>44096</v>
       </c>
@@ -1107,7 +1109,7 @@
         <v>2106.63</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="2" t="s">
         <v>1</v>
@@ -1129,7 +1131,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>44096</v>
       </c>
@@ -1153,7 +1155,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>44182</v>
       </c>
@@ -1182,7 +1184,7 @@
         <v>7367.07</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="2" t="s">
         <v>1</v>
@@ -1204,7 +1206,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>44182</v>
       </c>
@@ -1228,7 +1230,7 @@
       </c>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G29" s="19">
         <f>SUM(G2:G28)</f>
         <v>32794.400000000001</v>
@@ -1246,12 +1248,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1260,12 +1262,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/305ee.xlsx
+++ b/sputnik/personal/ee/305ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>нач пени  за 85 дн</t>
+  </si>
+  <si>
+    <t>нач пени  за103 дн</t>
   </si>
 </sst>
 </file>
@@ -520,10 +523,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1231,13 +1234,94 @@
       <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G29" s="19">
-        <f>SUM(G2:G28)</f>
-        <v>32794.400000000001</v>
-      </c>
-      <c r="H29" s="19">
-        <f>SUM(H2:H28)</f>
-        <v>32837.81</v>
+      <c r="A29" s="8">
+        <v>44287</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8710</v>
+      </c>
+      <c r="D29" s="2">
+        <f>SUM(C29,-C26)</f>
+        <v>3015</v>
+      </c>
+      <c r="E29" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" ref="F29:F30" si="11">PRODUCT(D29,E29)</f>
+        <v>14200.65</v>
+      </c>
+      <c r="G29" s="10">
+        <f>SUM(F29,F30)</f>
+        <v>18171</v>
+      </c>
+      <c r="H29" s="10">
+        <v>18171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4036</v>
+      </c>
+      <c r="D30" s="2">
+        <f>SUM(C30,-C27)</f>
+        <v>1557</v>
+      </c>
+      <c r="E30" s="7">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="11"/>
+        <v>3970.35</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>44287</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="14">
+        <v>0</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0</v>
+      </c>
+      <c r="F31" s="16">
+        <v>1144.77</v>
+      </c>
+      <c r="G31" s="17">
+        <v>1144.77</v>
+      </c>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="19">
+        <f>SUM(G2:G31)</f>
+        <v>52110.17</v>
+      </c>
+      <c r="H32" s="19">
+        <f>SUM(H2:H31)</f>
+        <v>51008.81</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="19">
+        <f>SUM(H32,-G32)</f>
+        <v>-1101.3600000000006</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/305ee.xlsx
+++ b/sputnik/personal/ee/305ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -173,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -215,7 +215,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -523,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1309,18 +1308,72 @@
       <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G32" s="19">
+      <c r="A32" s="8">
+        <v>44376</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>9600</v>
+      </c>
+      <c r="D32" s="2">
+        <f>SUM(C32,-C29)</f>
+        <v>890</v>
+      </c>
+      <c r="E32" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" ref="F32:F33" si="12">PRODUCT(D32,E32)</f>
+        <v>4191.8999999999996</v>
+      </c>
+      <c r="G32" s="10">
+        <f>SUM(F32,F33)</f>
+        <v>5273.0999999999995</v>
+      </c>
+      <c r="H32" s="10">
+        <v>5273.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4460</v>
+      </c>
+      <c r="D33" s="2">
+        <f>SUM(C33,-C30)</f>
+        <v>424</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="12"/>
+        <v>1081.1999999999998</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="18"/>
+      <c r="G34" s="9">
         <f>SUM(G2:G31)</f>
         <v>52110.17</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H34" s="9">
         <f>SUM(H2:H31)</f>
         <v>51008.81</v>
       </c>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H33" s="19">
-        <f>SUM(H32,-G32)</f>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="9">
+        <f>SUM(H34,-G34)</f>
         <v>-1101.3600000000006</v>
       </c>
     </row>

--- a/sputnik/personal/ee/305ee.xlsx
+++ b/sputnik/personal/ee/305ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -522,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1359,21 +1359,72 @@
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F34" s="18"/>
-      <c r="G34" s="9">
-        <f>SUM(G2:G31)</f>
-        <v>52110.17</v>
-      </c>
-      <c r="H34" s="9">
-        <f>SUM(H2:H31)</f>
-        <v>51008.81</v>
+      <c r="A34" s="8">
+        <v>44473</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9750</v>
+      </c>
+      <c r="D34" s="2">
+        <f>SUM(C34,-C32)</f>
+        <v>150</v>
+      </c>
+      <c r="E34" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" ref="F34:F35" si="13">PRODUCT(D34,E34)</f>
+        <v>744</v>
+      </c>
+      <c r="G34" s="10">
+        <f>SUM(F34,F35)</f>
+        <v>1012</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1012</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="9">
-        <f>SUM(H34,-G34)</f>
+      <c r="A35" s="3"/>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4560</v>
+      </c>
+      <c r="D35" s="2">
+        <f>SUM(C35,-C33)</f>
+        <v>100</v>
+      </c>
+      <c r="E35" s="7">
+        <v>2.68</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="13"/>
+        <v>268</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="18"/>
+      <c r="G36" s="9">
+        <f>SUM(G2:G35)</f>
+        <v>58395.27</v>
+      </c>
+      <c r="H36" s="9">
+        <f>SUM(H2:H35)</f>
+        <v>57293.909999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="9">
+        <f>SUM(H36,-G36)</f>
         <v>-1101.3600000000006</v>
       </c>
     </row>
